--- a/experiment/RUN_ME/stimuli/word_lists/practice_nat_primes.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/practice_nat_primes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CAFF866-61D7-4543-84C2-C4F7930981B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C05F60-E24A-4115-9E27-7E28331DA17D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1095" windowWidth="18900" windowHeight="11055" xr2:uid="{C422B0BD-0DDD-4ED2-B868-5A96842899D9}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{C422B0BD-0DDD-4ED2-B868-5A96842899D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="20">
   <si>
     <t>אגמים</t>
   </si>
@@ -50,12 +50,6 @@
     <t>פרעוש</t>
   </si>
   <si>
-    <t>נוצות</t>
-  </si>
-  <si>
-    <t>פרווה</t>
-  </si>
-  <si>
     <t>סופות</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>פילים</t>
+  </si>
+  <si>
+    <t>אריות</t>
+  </si>
+  <si>
+    <t>תותים</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
     <col min="4" max="5" width="5.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="5.5" bestFit="1" customWidth="1"/>
@@ -495,58 +495,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -559,12 +559,6 @@
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,9 +594,6 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
@@ -615,37 +606,34 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -664,7 +652,7 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -697,25 +685,22 @@
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -731,6 +716,9 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,406 +739,388 @@
       </c>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
